--- a/voting_excel.xlsx
+++ b/voting_excel.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyProjects\cse5911\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D682A1-9917-4EA5-9C69-8EEA1F1AC38B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="locations" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="options" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="locations" sheetId="1" r:id="rId1"/>
+    <sheet name="options" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -21,118 +26,121 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
-    <t xml:space="preserve">ID</t>
+    <t>ID</t>
   </si>
   <si>
-    <t xml:space="preserve">Likely or Exp. Voters</t>
+    <t>Likely or Exp. Voters</t>
   </si>
   <si>
-    <t xml:space="preserve">Eligible Voters</t>
+    <t>Eligible Voters</t>
   </si>
   <si>
-    <t xml:space="preserve">Ballot Length Measure</t>
+    <t>Ballot Length Measure</t>
   </si>
   <si>
-    <t xml:space="preserve">Control</t>
+    <t>Control</t>
   </si>
   <si>
-    <t xml:space="preserve">Setting</t>
+    <t>Setting</t>
   </si>
   <si>
-    <t xml:space="preserve">Locations</t>
+    <t>Advanced</t>
   </si>
   <si>
-    <t xml:space="preserve">Location_start</t>
+    <t>NUM_LOCATIONS</t>
   </si>
   <si>
-    <t xml:space="preserve">Location_end</t>
+    <t>Note</t>
   </si>
   <si>
-    <t xml:space="preserve">Probability</t>
+    <t>Number of locations in the locations tab</t>
   </si>
   <si>
-    <t xml:space="preserve">Indifference Zone</t>
+    <t>ALPHA_VALUE</t>
   </si>
   <si>
-    <t xml:space="preserve">early_start</t>
+    <t>DELTA_INDIFFERENCE_ZONE</t>
   </si>
   <si>
-    <t xml:space="preserve">poll_start</t>
+    <t>POLL_START</t>
   </si>
   <si>
-    <t xml:space="preserve">poll_end</t>
+    <t>POLL_END</t>
   </si>
   <si>
-    <t xml:space="preserve">Objective</t>
+    <t>Poll opening time, ex: 6.5 is 6:30am</t>
   </si>
   <si>
-    <t xml:space="preserve">Max</t>
+    <t>Poll closing time, ex: 19.5 is 7:30pm</t>
   </si>
   <si>
-    <t xml:space="preserve">Min Voting Time</t>
+    <t>MAX_MACHINES</t>
   </si>
   <si>
-    <t xml:space="preserve">Most Likely Voting Time</t>
+    <t>MIN_MACHINES</t>
   </si>
   <si>
-    <t xml:space="preserve">MinVotingMax</t>
+    <t>Minumum number of machines per location</t>
   </si>
   <si>
-    <t xml:space="preserve">MaxVotingMin</t>
+    <t>Maximum number of machines per location</t>
   </si>
   <si>
-    <t xml:space="preserve">MaxVotingMode</t>
+    <t>SERVICE_REQ</t>
   </si>
   <si>
-    <t xml:space="preserve">MaxVotingMax</t>
+    <t>Maximum number of minutes a voter should have to wait, ex: 30 is 30min</t>
   </si>
   <si>
-    <t xml:space="preserve">MaxBallot</t>
+    <t>MIN_VOTING_MIN</t>
   </si>
   <si>
-    <t xml:space="preserve">NumberResources</t>
+    <t>MIN_VOTING_MODE</t>
   </si>
   <si>
-    <t xml:space="preserve">BatchSize</t>
+    <t>MIN_VOTING_MAX</t>
   </si>
   <si>
-    <t xml:space="preserve">InitialSample</t>
+    <t>MIN_BALLOT</t>
   </si>
   <si>
-    <t xml:space="preserve">Minimum Allocation</t>
+    <t>MAX_VOTING_MIN</t>
+  </si>
+  <si>
+    <t>MAX_VOTING_MODE</t>
+  </si>
+  <si>
+    <t>MAX_VOTING_MAX</t>
+  </si>
+  <si>
+    <t>MAX_BALLOT</t>
+  </si>
+  <si>
+    <t>BATCH_SIZE</t>
+  </si>
+  <si>
+    <t>NUM_REPLICATIONS</t>
+  </si>
+  <si>
+    <t>How many voting simulations to run per system</t>
+  </si>
+  <si>
+    <t>Number of voting simulation results per batch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -142,19 +150,17 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -166,7 +172,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -174,87 +180,357 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D208"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.64453125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.5"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="9.625" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -268,3114 +544,3111 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="3">
         <v>2429</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="3">
         <v>4455</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="3">
         <v>89</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="3">
         <v>176</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="3">
         <v>2508</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="3">
         <v>4651</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="3">
         <v>3203</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="3">
         <v>5664</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="3">
         <v>2689</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="3">
         <v>5032</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="3">
         <v>2802</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="3">
         <v>6572</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="3">
         <v>1891</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="3">
         <v>4453</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="3">
         <v>980</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="3">
         <v>2264</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="3">
         <v>75</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="3">
         <v>178</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="3">
         <v>2922</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="3">
         <v>6597</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="3">
         <v>1847</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="3">
         <v>4409</v>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="3">
         <v>1605</v>
       </c>
-      <c r="C13" s="3" t="n">
+      <c r="C13" s="3">
         <v>3136</v>
       </c>
-      <c r="D13" s="3" t="n">
+      <c r="D13" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="3">
         <v>1383</v>
       </c>
-      <c r="C14" s="3" t="n">
+      <c r="C14" s="3">
         <v>2644</v>
       </c>
-      <c r="D14" s="3" t="n">
+      <c r="D14" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="3">
         <v>3211</v>
       </c>
-      <c r="C15" s="3" t="n">
+      <c r="C15" s="3">
         <v>6172</v>
       </c>
-      <c r="D15" s="3" t="n">
+      <c r="D15" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="n">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="3">
         <v>1620</v>
       </c>
-      <c r="C16" s="3" t="n">
+      <c r="C16" s="3">
         <v>3832</v>
       </c>
-      <c r="D16" s="3" t="n">
+      <c r="D16" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="n">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="3">
         <v>774</v>
       </c>
-      <c r="C17" s="3" t="n">
+      <c r="C17" s="3">
         <v>1359</v>
       </c>
-      <c r="D17" s="3" t="n">
+      <c r="D17" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="n">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="3">
         <v>449</v>
       </c>
-      <c r="C18" s="3" t="n">
+      <c r="C18" s="3">
         <v>938</v>
       </c>
-      <c r="D18" s="3" t="n">
+      <c r="D18" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="n">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="3">
         <v>466</v>
       </c>
-      <c r="C19" s="3" t="n">
+      <c r="C19" s="3">
         <v>1039</v>
       </c>
-      <c r="D19" s="3" t="n">
+      <c r="D19" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="n">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="3">
         <v>3765</v>
       </c>
-      <c r="C20" s="3" t="n">
+      <c r="C20" s="3">
         <v>6722</v>
       </c>
-      <c r="D20" s="3" t="n">
+      <c r="D20" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="n">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="3">
         <v>2432</v>
       </c>
-      <c r="C21" s="3" t="n">
+      <c r="C21" s="3">
         <v>4400</v>
       </c>
-      <c r="D21" s="3" t="n">
+      <c r="D21" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="n">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="3">
         <v>95</v>
       </c>
-      <c r="C22" s="3" t="n">
+      <c r="C22" s="3">
         <v>236</v>
       </c>
-      <c r="D22" s="3" t="n">
+      <c r="D22" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="n">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="3">
         <v>171</v>
       </c>
-      <c r="C23" s="3" t="n">
+      <c r="C23" s="3">
         <v>365</v>
       </c>
-      <c r="D23" s="3" t="n">
+      <c r="D23" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="n">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="3">
         <v>946</v>
       </c>
-      <c r="C24" s="3" t="n">
+      <c r="C24" s="3">
         <v>2306</v>
       </c>
-      <c r="D24" s="3" t="n">
+      <c r="D24" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="n">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="3">
         <v>2987</v>
       </c>
-      <c r="C25" s="3" t="n">
+      <c r="C25" s="3">
         <v>6380</v>
       </c>
-      <c r="D25" s="3" t="n">
+      <c r="D25" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="n">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="3">
         <v>2371</v>
       </c>
-      <c r="C26" s="3" t="n">
+      <c r="C26" s="3">
         <v>5749</v>
       </c>
-      <c r="D26" s="3" t="n">
+      <c r="D26" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="n">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="3">
         <v>3076</v>
       </c>
-      <c r="C27" s="3" t="n">
+      <c r="C27" s="3">
         <v>5141</v>
       </c>
-      <c r="D27" s="3" t="n">
+      <c r="D27" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="n">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="3">
         <v>332</v>
       </c>
-      <c r="C28" s="3" t="n">
+      <c r="C28" s="3">
         <v>632</v>
       </c>
-      <c r="D28" s="3" t="n">
+      <c r="D28" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="n">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="3">
         <v>1424</v>
       </c>
-      <c r="C29" s="3" t="n">
+      <c r="C29" s="3">
         <v>2563</v>
       </c>
-      <c r="D29" s="3" t="n">
+      <c r="D29" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="n">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="3">
         <v>3484</v>
       </c>
-      <c r="C30" s="3" t="n">
+      <c r="C30" s="3">
         <v>5840</v>
       </c>
-      <c r="D30" s="3" t="n">
+      <c r="D30" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="n">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="3">
         <v>2510</v>
       </c>
-      <c r="C31" s="3" t="n">
+      <c r="C31" s="3">
         <v>4999</v>
       </c>
-      <c r="D31" s="3" t="n">
+      <c r="D31" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="n">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="3">
         <v>107</v>
       </c>
-      <c r="C32" s="3" t="n">
+      <c r="C32" s="3">
         <v>231</v>
       </c>
-      <c r="D32" s="3" t="n">
+      <c r="D32" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="n">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="3">
         <v>1794</v>
       </c>
-      <c r="C33" s="3" t="n">
+      <c r="C33" s="3">
         <v>3962</v>
       </c>
-      <c r="D33" s="3" t="n">
+      <c r="D33" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="n">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="3">
         <v>2891</v>
       </c>
-      <c r="C34" s="3" t="n">
+      <c r="C34" s="3">
         <v>6033</v>
       </c>
-      <c r="D34" s="3" t="n">
+      <c r="D34" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="n">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" s="3">
         <v>1491</v>
       </c>
-      <c r="C35" s="3" t="n">
+      <c r="C35" s="3">
         <v>2626</v>
       </c>
-      <c r="D35" s="3" t="n">
+      <c r="D35" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="n">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="3">
         <v>2679</v>
       </c>
-      <c r="C36" s="3" t="n">
+      <c r="C36" s="3">
         <v>6512</v>
       </c>
-      <c r="D36" s="3" t="n">
+      <c r="D36" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="n">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="3">
         <v>1478</v>
       </c>
-      <c r="C37" s="3" t="n">
+      <c r="C37" s="3">
         <v>2977</v>
       </c>
-      <c r="D37" s="3" t="n">
+      <c r="D37" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="n">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="3">
         <v>3535</v>
       </c>
-      <c r="C38" s="3" t="n">
+      <c r="C38" s="3">
         <v>6615</v>
       </c>
-      <c r="D38" s="3" t="n">
+      <c r="D38" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="n">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="3">
         <v>1443</v>
       </c>
-      <c r="C39" s="3" t="n">
+      <c r="C39" s="3">
         <v>3418</v>
       </c>
-      <c r="D39" s="3" t="n">
+      <c r="D39" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="n">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="3">
         <v>956</v>
       </c>
-      <c r="C40" s="3" t="n">
+      <c r="C40" s="3">
         <v>2379</v>
       </c>
-      <c r="D40" s="3" t="n">
+      <c r="D40" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="n">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="3">
         <v>1563</v>
       </c>
-      <c r="C41" s="3" t="n">
+      <c r="C41" s="3">
         <v>2663</v>
       </c>
-      <c r="D41" s="3" t="n">
+      <c r="D41" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="n">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="3">
         <v>488</v>
       </c>
-      <c r="C42" s="3" t="n">
+      <c r="C42" s="3">
         <v>1056</v>
       </c>
-      <c r="D42" s="3" t="n">
+      <c r="D42" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="n">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" s="3">
         <v>127</v>
       </c>
-      <c r="C43" s="3" t="n">
+      <c r="C43" s="3">
         <v>307</v>
       </c>
-      <c r="D43" s="3" t="n">
+      <c r="D43" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="n">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B44" s="3">
         <v>2534</v>
       </c>
-      <c r="C44" s="3" t="n">
+      <c r="C44" s="3">
         <v>6086</v>
       </c>
-      <c r="D44" s="3" t="n">
+      <c r="D44" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="n">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="3">
         <v>560</v>
       </c>
-      <c r="C45" s="3" t="n">
+      <c r="C45" s="3">
         <v>1246</v>
       </c>
-      <c r="D45" s="3" t="n">
+      <c r="D45" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="n">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B46" s="3">
         <v>3593</v>
       </c>
-      <c r="C46" s="3" t="n">
+      <c r="C46" s="3">
         <v>6891</v>
       </c>
-      <c r="D46" s="3" t="n">
+      <c r="D46" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="n">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="3">
         <v>1570</v>
       </c>
-      <c r="C47" s="3" t="n">
+      <c r="C47" s="3">
         <v>2869</v>
       </c>
-      <c r="D47" s="3" t="n">
+      <c r="D47" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="n">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="3">
         <v>2304</v>
       </c>
-      <c r="C48" s="3" t="n">
+      <c r="C48" s="3">
         <v>5520</v>
       </c>
-      <c r="D48" s="3" t="n">
+      <c r="D48" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="n">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="3">
         <v>615</v>
       </c>
-      <c r="C49" s="3" t="n">
+      <c r="C49" s="3">
         <v>1030</v>
       </c>
-      <c r="D49" s="3" t="n">
+      <c r="D49" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="n">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="3">
         <v>371</v>
       </c>
-      <c r="C50" s="3" t="n">
+      <c r="C50" s="3">
         <v>806</v>
       </c>
-      <c r="D50" s="3" t="n">
+      <c r="D50" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3" t="n">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
         <v>50</v>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="3">
         <v>3583</v>
       </c>
-      <c r="C51" s="3" t="n">
+      <c r="C51" s="3">
         <v>6608</v>
       </c>
-      <c r="D51" s="3" t="n">
+      <c r="D51" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3" t="n">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
         <v>51</v>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="3">
         <v>442</v>
       </c>
-      <c r="C52" s="3" t="n">
+      <c r="C52" s="3">
         <v>1030</v>
       </c>
-      <c r="D52" s="3" t="n">
+      <c r="D52" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3" t="n">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
         <v>52</v>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="3">
         <v>3227</v>
       </c>
-      <c r="C53" s="3" t="n">
+      <c r="C53" s="3">
         <v>5935</v>
       </c>
-      <c r="D53" s="3" t="n">
+      <c r="D53" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3" t="n">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
         <v>53</v>
       </c>
-      <c r="B54" s="3" t="n">
+      <c r="B54" s="3">
         <v>192</v>
       </c>
-      <c r="C54" s="3" t="n">
+      <c r="C54" s="3">
         <v>322</v>
       </c>
-      <c r="D54" s="3" t="n">
+      <c r="D54" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3" t="n">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
         <v>54</v>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="3">
         <v>1916</v>
       </c>
-      <c r="C55" s="3" t="n">
+      <c r="C55" s="3">
         <v>4452</v>
       </c>
-      <c r="D55" s="3" t="n">
+      <c r="D55" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3" t="n">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
         <v>55</v>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="3">
         <v>713</v>
       </c>
-      <c r="C56" s="3" t="n">
+      <c r="C56" s="3">
         <v>1421</v>
       </c>
-      <c r="D56" s="3" t="n">
+      <c r="D56" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="3" t="n">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
         <v>56</v>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="3">
         <v>1283</v>
       </c>
-      <c r="C57" s="3" t="n">
+      <c r="C57" s="3">
         <v>2466</v>
       </c>
-      <c r="D57" s="3" t="n">
+      <c r="D57" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="3" t="n">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
         <v>57</v>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="3">
         <v>1164</v>
       </c>
-      <c r="C58" s="3" t="n">
+      <c r="C58" s="3">
         <v>2059</v>
       </c>
-      <c r="D58" s="3" t="n">
+      <c r="D58" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="3" t="n">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
         <v>58</v>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="3">
         <v>613</v>
       </c>
-      <c r="C59" s="3" t="n">
+      <c r="C59" s="3">
         <v>1239</v>
       </c>
-      <c r="D59" s="3" t="n">
+      <c r="D59" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="3" t="n">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
         <v>59</v>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="3">
         <v>3185</v>
       </c>
-      <c r="C60" s="3" t="n">
+      <c r="C60" s="3">
         <v>6596</v>
       </c>
-      <c r="D60" s="3" t="n">
+      <c r="D60" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="3" t="n">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
         <v>60</v>
       </c>
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="3">
         <v>2189</v>
       </c>
-      <c r="C61" s="3" t="n">
+      <c r="C61" s="3">
         <v>4571</v>
       </c>
-      <c r="D61" s="3" t="n">
+      <c r="D61" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="3" t="n">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
         <v>61</v>
       </c>
-      <c r="B62" s="3" t="n">
+      <c r="B62" s="3">
         <v>2348</v>
       </c>
-      <c r="C62" s="3" t="n">
+      <c r="C62" s="3">
         <v>4539</v>
       </c>
-      <c r="D62" s="3" t="n">
+      <c r="D62" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="3" t="n">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
         <v>62</v>
       </c>
-      <c r="B63" s="3" t="n">
+      <c r="B63" s="3">
         <v>2801</v>
       </c>
-      <c r="C63" s="3" t="n">
+      <c r="C63" s="3">
         <v>5642</v>
       </c>
-      <c r="D63" s="3" t="n">
+      <c r="D63" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="3" t="n">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
         <v>63</v>
       </c>
-      <c r="B64" s="3" t="n">
+      <c r="B64" s="3">
         <v>916</v>
       </c>
-      <c r="C64" s="3" t="n">
+      <c r="C64" s="3">
         <v>1852</v>
       </c>
-      <c r="D64" s="3" t="n">
+      <c r="D64" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="3" t="n">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
         <v>64</v>
       </c>
-      <c r="B65" s="3" t="n">
+      <c r="B65" s="3">
         <v>2519</v>
       </c>
-      <c r="C65" s="3" t="n">
+      <c r="C65" s="3">
         <v>4580</v>
       </c>
-      <c r="D65" s="3" t="n">
+      <c r="D65" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="3" t="n">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
         <v>65</v>
       </c>
-      <c r="B66" s="3" t="n">
+      <c r="B66" s="3">
         <v>450</v>
       </c>
-      <c r="C66" s="3" t="n">
+      <c r="C66" s="3">
         <v>1005</v>
       </c>
-      <c r="D66" s="3" t="n">
+      <c r="D66" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="3" t="n">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
         <v>66</v>
       </c>
-      <c r="B67" s="3" t="n">
+      <c r="B67" s="3">
         <v>1209</v>
       </c>
-      <c r="C67" s="3" t="n">
+      <c r="C67" s="3">
         <v>2414</v>
       </c>
-      <c r="D67" s="3" t="n">
+      <c r="D67" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="3" t="n">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
         <v>67</v>
       </c>
-      <c r="B68" s="3" t="n">
+      <c r="B68" s="3">
         <v>1414</v>
       </c>
-      <c r="C68" s="3" t="n">
+      <c r="C68" s="3">
         <v>2362</v>
       </c>
-      <c r="D68" s="3" t="n">
+      <c r="D68" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="3" t="n">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
         <v>68</v>
       </c>
-      <c r="B69" s="3" t="n">
+      <c r="B69" s="3">
         <v>1162</v>
       </c>
-      <c r="C69" s="3" t="n">
+      <c r="C69" s="3">
         <v>2004</v>
       </c>
-      <c r="D69" s="3" t="n">
+      <c r="D69" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="3" t="n">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
         <v>69</v>
       </c>
-      <c r="B70" s="3" t="n">
+      <c r="B70" s="3">
         <v>2375</v>
       </c>
-      <c r="C70" s="3" t="n">
+      <c r="C70" s="3">
         <v>5507</v>
       </c>
-      <c r="D70" s="3" t="n">
+      <c r="D70" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="3" t="n">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
         <v>70</v>
       </c>
-      <c r="B71" s="3" t="n">
+      <c r="B71" s="3">
         <v>1028</v>
       </c>
-      <c r="C71" s="3" t="n">
+      <c r="C71" s="3">
         <v>1991</v>
       </c>
-      <c r="D71" s="3" t="n">
+      <c r="D71" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="3" t="n">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
         <v>71</v>
       </c>
-      <c r="B72" s="3" t="n">
+      <c r="B72" s="3">
         <v>2092</v>
       </c>
-      <c r="C72" s="3" t="n">
+      <c r="C72" s="3">
         <v>4938</v>
       </c>
-      <c r="D72" s="3" t="n">
+      <c r="D72" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="3" t="n">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
         <v>72</v>
       </c>
-      <c r="B73" s="3" t="n">
+      <c r="B73" s="3">
         <v>2506</v>
       </c>
-      <c r="C73" s="3" t="n">
+      <c r="C73" s="3">
         <v>5777</v>
       </c>
-      <c r="D73" s="3" t="n">
+      <c r="D73" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="3" t="n">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
         <v>73</v>
       </c>
-      <c r="B74" s="3" t="n">
+      <c r="B74" s="3">
         <v>880</v>
       </c>
-      <c r="C74" s="3" t="n">
+      <c r="C74" s="3">
         <v>1957</v>
       </c>
-      <c r="D74" s="3" t="n">
+      <c r="D74" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="3" t="n">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
         <v>74</v>
       </c>
-      <c r="B75" s="3" t="n">
+      <c r="B75" s="3">
         <v>815</v>
       </c>
-      <c r="C75" s="3" t="n">
+      <c r="C75" s="3">
         <v>1526</v>
       </c>
-      <c r="D75" s="3" t="n">
+      <c r="D75" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="3" t="n">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
         <v>75</v>
       </c>
-      <c r="B76" s="3" t="n">
+      <c r="B76" s="3">
         <v>2748</v>
       </c>
-      <c r="C76" s="3" t="n">
+      <c r="C76" s="3">
         <v>5807</v>
       </c>
-      <c r="D76" s="3" t="n">
+      <c r="D76" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="3" t="n">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
         <v>76</v>
       </c>
-      <c r="B77" s="3" t="n">
+      <c r="B77" s="3">
         <v>2484</v>
       </c>
-      <c r="C77" s="3" t="n">
+      <c r="C77" s="3">
         <v>4459</v>
       </c>
-      <c r="D77" s="3" t="n">
+      <c r="D77" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="3" t="n">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
         <v>77</v>
       </c>
-      <c r="B78" s="3" t="n">
+      <c r="B78" s="3">
         <v>3435</v>
       </c>
-      <c r="C78" s="3" t="n">
+      <c r="C78" s="3">
         <v>6075</v>
       </c>
-      <c r="D78" s="3" t="n">
+      <c r="D78" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="3" t="n">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
         <v>78</v>
       </c>
-      <c r="B79" s="3" t="n">
+      <c r="B79" s="3">
         <v>1609</v>
       </c>
-      <c r="C79" s="3" t="n">
+      <c r="C79" s="3">
         <v>3994</v>
       </c>
-      <c r="D79" s="3" t="n">
+      <c r="D79" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="3" t="n">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
         <v>79</v>
       </c>
-      <c r="B80" s="3" t="n">
+      <c r="B80" s="3">
         <v>281</v>
       </c>
-      <c r="C80" s="3" t="n">
+      <c r="C80" s="3">
         <v>527</v>
       </c>
-      <c r="D80" s="3" t="n">
+      <c r="D80" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="3" t="n">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
         <v>80</v>
       </c>
-      <c r="B81" s="3" t="n">
+      <c r="B81" s="3">
         <v>3238</v>
       </c>
-      <c r="C81" s="3" t="n">
+      <c r="C81" s="3">
         <v>5931</v>
       </c>
-      <c r="D81" s="3" t="n">
+      <c r="D81" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="3" t="n">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
         <v>81</v>
       </c>
-      <c r="B82" s="3" t="n">
+      <c r="B82" s="3">
         <v>2802</v>
       </c>
-      <c r="C82" s="3" t="n">
+      <c r="C82" s="3">
         <v>6936</v>
       </c>
-      <c r="D82" s="3" t="n">
+      <c r="D82" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="3" t="n">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
         <v>82</v>
       </c>
-      <c r="B83" s="3" t="n">
+      <c r="B83" s="3">
         <v>820</v>
       </c>
-      <c r="C83" s="3" t="n">
+      <c r="C83" s="3">
         <v>1988</v>
       </c>
-      <c r="D83" s="3" t="n">
+      <c r="D83" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="3" t="n">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
         <v>83</v>
       </c>
-      <c r="B84" s="3" t="n">
+      <c r="B84" s="3">
         <v>1040</v>
       </c>
-      <c r="C84" s="3" t="n">
+      <c r="C84" s="3">
         <v>2011</v>
       </c>
-      <c r="D84" s="3" t="n">
+      <c r="D84" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="3" t="n">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
         <v>84</v>
       </c>
-      <c r="B85" s="3" t="n">
+      <c r="B85" s="3">
         <v>3485</v>
       </c>
-      <c r="C85" s="3" t="n">
+      <c r="C85" s="3">
         <v>6272</v>
       </c>
-      <c r="D85" s="3" t="n">
+      <c r="D85" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="3" t="n">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
         <v>85</v>
       </c>
-      <c r="B86" s="3" t="n">
+      <c r="B86" s="3">
         <v>1556</v>
       </c>
-      <c r="C86" s="3" t="n">
+      <c r="C86" s="3">
         <v>3034</v>
       </c>
-      <c r="D86" s="3" t="n">
+      <c r="D86" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="3" t="n">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
         <v>86</v>
       </c>
-      <c r="B87" s="3" t="n">
+      <c r="B87" s="3">
         <v>3198</v>
       </c>
-      <c r="C87" s="3" t="n">
+      <c r="C87" s="3">
         <v>6886</v>
       </c>
-      <c r="D87" s="3" t="n">
+      <c r="D87" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="3" t="n">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
         <v>87</v>
       </c>
-      <c r="B88" s="3" t="n">
+      <c r="B88" s="3">
         <v>144</v>
       </c>
-      <c r="C88" s="3" t="n">
+      <c r="C88" s="3">
         <v>319</v>
       </c>
-      <c r="D88" s="3" t="n">
+      <c r="D88" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="3" t="n">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
         <v>88</v>
       </c>
-      <c r="B89" s="3" t="n">
+      <c r="B89" s="3">
         <v>2505</v>
       </c>
-      <c r="C89" s="3" t="n">
+      <c r="C89" s="3">
         <v>4353</v>
       </c>
-      <c r="D89" s="3" t="n">
+      <c r="D89" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="3" t="n">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
         <v>89</v>
       </c>
-      <c r="B90" s="3" t="n">
+      <c r="B90" s="3">
         <v>975</v>
       </c>
-      <c r="C90" s="3" t="n">
+      <c r="C90" s="3">
         <v>2383</v>
       </c>
-      <c r="D90" s="3" t="n">
+      <c r="D90" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="3" t="n">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
         <v>90</v>
       </c>
-      <c r="B91" s="3" t="n">
+      <c r="B91" s="3">
         <v>1179</v>
       </c>
-      <c r="C91" s="3" t="n">
+      <c r="C91" s="3">
         <v>2424</v>
       </c>
-      <c r="D91" s="3" t="n">
+      <c r="D91" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="3" t="n">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
         <v>91</v>
       </c>
-      <c r="B92" s="3" t="n">
+      <c r="B92" s="3">
         <v>2237</v>
       </c>
-      <c r="C92" s="3" t="n">
+      <c r="C92" s="3">
         <v>4487</v>
       </c>
-      <c r="D92" s="3" t="n">
+      <c r="D92" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="3" t="n">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
         <v>92</v>
       </c>
-      <c r="B93" s="3" t="n">
+      <c r="B93" s="3">
         <v>780</v>
       </c>
-      <c r="C93" s="3" t="n">
+      <c r="C93" s="3">
         <v>1571</v>
       </c>
-      <c r="D93" s="3" t="n">
+      <c r="D93" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="3" t="n">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
         <v>93</v>
       </c>
-      <c r="B94" s="3" t="n">
+      <c r="B94" s="3">
         <v>3573</v>
       </c>
-      <c r="C94" s="3" t="n">
+      <c r="C94" s="3">
         <v>6801</v>
       </c>
-      <c r="D94" s="3" t="n">
+      <c r="D94" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="3" t="n">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
         <v>94</v>
       </c>
-      <c r="B95" s="3" t="n">
+      <c r="B95" s="3">
         <v>1164</v>
       </c>
-      <c r="C95" s="3" t="n">
+      <c r="C95" s="3">
         <v>2763</v>
       </c>
-      <c r="D95" s="3" t="n">
+      <c r="D95" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="3" t="n">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
         <v>95</v>
       </c>
-      <c r="B96" s="3" t="n">
+      <c r="B96" s="3">
         <v>179</v>
       </c>
-      <c r="C96" s="3" t="n">
+      <c r="C96" s="3">
         <v>422</v>
       </c>
-      <c r="D96" s="3" t="n">
+      <c r="D96" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="3" t="n">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
         <v>96</v>
       </c>
-      <c r="B97" s="3" t="n">
+      <c r="B97" s="3">
         <v>2115</v>
       </c>
-      <c r="C97" s="3" t="n">
+      <c r="C97" s="3">
         <v>4158</v>
       </c>
-      <c r="D97" s="3" t="n">
+      <c r="D97" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="3" t="n">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
         <v>97</v>
       </c>
-      <c r="B98" s="3" t="n">
+      <c r="B98" s="3">
         <v>2204</v>
       </c>
-      <c r="C98" s="3" t="n">
+      <c r="C98" s="3">
         <v>3676</v>
       </c>
-      <c r="D98" s="3" t="n">
+      <c r="D98" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="3" t="n">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
         <v>98</v>
       </c>
-      <c r="B99" s="3" t="n">
+      <c r="B99" s="3">
         <v>280</v>
       </c>
-      <c r="C99" s="3" t="n">
+      <c r="C99" s="3">
         <v>499</v>
       </c>
-      <c r="D99" s="3" t="n">
+      <c r="D99" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="3" t="n">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
         <v>99</v>
       </c>
-      <c r="B100" s="3" t="n">
+      <c r="B100" s="3">
         <v>2961</v>
       </c>
-      <c r="C100" s="3" t="n">
+      <c r="C100" s="3">
         <v>5370</v>
       </c>
-      <c r="D100" s="3" t="n">
+      <c r="D100" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="3" t="n">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
         <v>100</v>
       </c>
-      <c r="B101" s="3" t="n">
+      <c r="B101" s="3">
         <v>2915</v>
       </c>
-      <c r="C101" s="3" t="n">
+      <c r="C101" s="3">
         <v>5412</v>
       </c>
-      <c r="D101" s="3" t="n">
+      <c r="D101" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="3" t="n">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
         <v>101</v>
       </c>
-      <c r="B102" s="3" t="n">
+      <c r="B102" s="3">
         <v>2542</v>
       </c>
-      <c r="C102" s="3" t="n">
+      <c r="C102" s="3">
         <v>5894</v>
       </c>
-      <c r="D102" s="3" t="n">
+      <c r="D102" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="3" t="n">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
         <v>102</v>
       </c>
-      <c r="B103" s="3" t="n">
+      <c r="B103" s="3">
         <v>2666</v>
       </c>
-      <c r="C103" s="3" t="n">
+      <c r="C103" s="3">
         <v>5685</v>
       </c>
-      <c r="D103" s="3" t="n">
+      <c r="D103" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="3" t="n">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
         <v>103</v>
       </c>
-      <c r="B104" s="3" t="n">
+      <c r="B104" s="3">
         <v>2830</v>
       </c>
-      <c r="C104" s="3" t="n">
+      <c r="C104" s="3">
         <v>5455</v>
       </c>
-      <c r="D104" s="3" t="n">
+      <c r="D104" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="3" t="n">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
         <v>104</v>
       </c>
-      <c r="B105" s="3" t="n">
+      <c r="B105" s="3">
         <v>2423</v>
       </c>
-      <c r="C105" s="3" t="n">
+      <c r="C105" s="3">
         <v>4544</v>
       </c>
-      <c r="D105" s="3" t="n">
+      <c r="D105" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="3" t="n">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
         <v>105</v>
       </c>
-      <c r="B106" s="3" t="n">
+      <c r="B106" s="3">
         <v>2640</v>
       </c>
-      <c r="C106" s="3" t="n">
+      <c r="C106" s="3">
         <v>5367</v>
       </c>
-      <c r="D106" s="3" t="n">
+      <c r="D106" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="3" t="n">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
         <v>106</v>
       </c>
-      <c r="B107" s="3" t="n">
+      <c r="B107" s="3">
         <v>2982</v>
       </c>
-      <c r="C107" s="3" t="n">
+      <c r="C107" s="3">
         <v>5758</v>
       </c>
-      <c r="D107" s="3" t="n">
+      <c r="D107" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="3" t="n">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
         <v>107</v>
       </c>
-      <c r="B108" s="3" t="n">
+      <c r="B108" s="3">
         <v>3760</v>
       </c>
-      <c r="C108" s="3" t="n">
+      <c r="C108" s="3">
         <v>6501</v>
       </c>
-      <c r="D108" s="3" t="n">
+      <c r="D108" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="3" t="n">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
         <v>108</v>
       </c>
-      <c r="B109" s="3" t="n">
+      <c r="B109" s="3">
         <v>596</v>
       </c>
-      <c r="C109" s="3" t="n">
+      <c r="C109" s="3">
         <v>1101</v>
       </c>
-      <c r="D109" s="3" t="n">
+      <c r="D109" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="3" t="n">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
         <v>109</v>
       </c>
-      <c r="B110" s="3" t="n">
+      <c r="B110" s="3">
         <v>2372</v>
       </c>
-      <c r="C110" s="3" t="n">
+      <c r="C110" s="3">
         <v>4854</v>
       </c>
-      <c r="D110" s="3" t="n">
+      <c r="D110" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="3" t="n">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
         <v>110</v>
       </c>
-      <c r="B111" s="3" t="n">
+      <c r="B111" s="3">
         <v>2406</v>
       </c>
-      <c r="C111" s="3" t="n">
+      <c r="C111" s="3">
         <v>4505</v>
       </c>
-      <c r="D111" s="3" t="n">
+      <c r="D111" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="3" t="n">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
         <v>111</v>
       </c>
-      <c r="B112" s="3" t="n">
+      <c r="B112" s="3">
         <v>49</v>
       </c>
-      <c r="C112" s="3" t="n">
+      <c r="C112" s="3">
         <v>113</v>
       </c>
-      <c r="D112" s="3" t="n">
+      <c r="D112" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="3" t="n">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
         <v>112</v>
       </c>
-      <c r="B113" s="3" t="n">
+      <c r="B113" s="3">
         <v>387</v>
       </c>
-      <c r="C113" s="3" t="n">
+      <c r="C113" s="3">
         <v>937</v>
       </c>
-      <c r="D113" s="3" t="n">
+      <c r="D113" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="3" t="n">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
         <v>113</v>
       </c>
-      <c r="B114" s="3" t="n">
+      <c r="B114" s="3">
         <v>2727</v>
       </c>
-      <c r="C114" s="3" t="n">
+      <c r="C114" s="3">
         <v>5163</v>
       </c>
-      <c r="D114" s="3" t="n">
+      <c r="D114" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="3" t="n">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
         <v>114</v>
       </c>
-      <c r="B115" s="3" t="n">
+      <c r="B115" s="3">
         <v>112</v>
       </c>
-      <c r="C115" s="3" t="n">
+      <c r="C115" s="3">
         <v>199</v>
       </c>
-      <c r="D115" s="3" t="n">
+      <c r="D115" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="3" t="n">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
         <v>115</v>
       </c>
-      <c r="B116" s="3" t="n">
+      <c r="B116" s="3">
         <v>1617</v>
       </c>
-      <c r="C116" s="3" t="n">
+      <c r="C116" s="3">
         <v>3487</v>
       </c>
-      <c r="D116" s="3" t="n">
+      <c r="D116" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="3" t="n">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
         <v>116</v>
       </c>
-      <c r="B117" s="3" t="n">
+      <c r="B117" s="3">
         <v>541</v>
       </c>
-      <c r="C117" s="3" t="n">
+      <c r="C117" s="3">
         <v>1010</v>
       </c>
-      <c r="D117" s="3" t="n">
+      <c r="D117" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="3" t="n">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
         <v>117</v>
       </c>
-      <c r="B118" s="3" t="n">
+      <c r="B118" s="3">
         <v>3117</v>
       </c>
-      <c r="C118" s="3" t="n">
+      <c r="C118" s="3">
         <v>6201</v>
       </c>
-      <c r="D118" s="3" t="n">
+      <c r="D118" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="3" t="n">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
         <v>118</v>
       </c>
-      <c r="B119" s="3" t="n">
+      <c r="B119" s="3">
         <v>1966</v>
       </c>
-      <c r="C119" s="3" t="n">
+      <c r="C119" s="3">
         <v>3602</v>
       </c>
-      <c r="D119" s="3" t="n">
+      <c r="D119" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="3" t="n">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
         <v>119</v>
       </c>
-      <c r="B120" s="3" t="n">
+      <c r="B120" s="3">
         <v>1797</v>
       </c>
-      <c r="C120" s="3" t="n">
+      <c r="C120" s="3">
         <v>4285</v>
       </c>
-      <c r="D120" s="3" t="n">
+      <c r="D120" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="3" t="n">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="3">
         <v>120</v>
       </c>
-      <c r="B121" s="3" t="n">
+      <c r="B121" s="3">
         <v>1786</v>
       </c>
-      <c r="C121" s="3" t="n">
+      <c r="C121" s="3">
         <v>3697</v>
       </c>
-      <c r="D121" s="3" t="n">
+      <c r="D121" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="3" t="n">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
         <v>121</v>
       </c>
-      <c r="B122" s="3" t="n">
+      <c r="B122" s="3">
         <v>1964</v>
       </c>
-      <c r="C122" s="3" t="n">
+      <c r="C122" s="3">
         <v>4050</v>
       </c>
-      <c r="D122" s="3" t="n">
+      <c r="D122" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="3" t="n">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
         <v>122</v>
       </c>
-      <c r="B123" s="3" t="n">
+      <c r="B123" s="3">
         <v>1344</v>
       </c>
-      <c r="C123" s="3" t="n">
+      <c r="C123" s="3">
         <v>2560</v>
       </c>
-      <c r="D123" s="3" t="n">
+      <c r="D123" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="3" t="n">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="3">
         <v>123</v>
       </c>
-      <c r="B124" s="3" t="n">
+      <c r="B124" s="3">
         <v>3045</v>
       </c>
-      <c r="C124" s="3" t="n">
+      <c r="C124" s="3">
         <v>5266</v>
       </c>
-      <c r="D124" s="3" t="n">
+      <c r="D124" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="3" t="n">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="3">
         <v>124</v>
       </c>
-      <c r="B125" s="3" t="n">
+      <c r="B125" s="3">
         <v>1837</v>
       </c>
-      <c r="C125" s="3" t="n">
+      <c r="C125" s="3">
         <v>4516</v>
       </c>
-      <c r="D125" s="3" t="n">
+      <c r="D125" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="3" t="n">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
         <v>125</v>
       </c>
-      <c r="B126" s="3" t="n">
+      <c r="B126" s="3">
         <v>1473</v>
       </c>
-      <c r="C126" s="3" t="n">
+      <c r="C126" s="3">
         <v>3457</v>
       </c>
-      <c r="D126" s="3" t="n">
+      <c r="D126" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="3" t="n">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="3">
         <v>126</v>
       </c>
-      <c r="B127" s="3" t="n">
+      <c r="B127" s="3">
         <v>1146</v>
       </c>
-      <c r="C127" s="3" t="n">
+      <c r="C127" s="3">
         <v>2156</v>
       </c>
-      <c r="D127" s="3" t="n">
+      <c r="D127" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="3" t="n">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
         <v>127</v>
       </c>
-      <c r="B128" s="3" t="n">
+      <c r="B128" s="3">
         <v>2799</v>
       </c>
-      <c r="C128" s="3" t="n">
+      <c r="C128" s="3">
         <v>6273</v>
       </c>
-      <c r="D128" s="3" t="n">
+      <c r="D128" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="3" t="n">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
         <v>128</v>
       </c>
-      <c r="B129" s="3" t="n">
+      <c r="B129" s="3">
         <v>2710</v>
       </c>
-      <c r="C129" s="3" t="n">
+      <c r="C129" s="3">
         <v>5046</v>
       </c>
-      <c r="D129" s="3" t="n">
+      <c r="D129" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="3" t="n">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="3">
         <v>129</v>
       </c>
-      <c r="B130" s="3" t="n">
+      <c r="B130" s="3">
         <v>2073</v>
       </c>
-      <c r="C130" s="3" t="n">
+      <c r="C130" s="3">
         <v>4106</v>
       </c>
-      <c r="D130" s="3" t="n">
+      <c r="D130" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="3" t="n">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="3">
         <v>130</v>
       </c>
-      <c r="B131" s="3" t="n">
+      <c r="B131" s="3">
         <v>2305</v>
       </c>
-      <c r="C131" s="3" t="n">
+      <c r="C131" s="3">
         <v>5008</v>
       </c>
-      <c r="D131" s="3" t="n">
+      <c r="D131" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="3" t="n">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="3">
         <v>131</v>
       </c>
-      <c r="B132" s="3" t="n">
+      <c r="B132" s="3">
         <v>1730</v>
       </c>
-      <c r="C132" s="3" t="n">
+      <c r="C132" s="3">
         <v>4003</v>
       </c>
-      <c r="D132" s="3" t="n">
+      <c r="D132" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="3" t="n">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
         <v>132</v>
       </c>
-      <c r="B133" s="3" t="n">
+      <c r="B133" s="3">
         <v>1018</v>
       </c>
-      <c r="C133" s="3" t="n">
+      <c r="C133" s="3">
         <v>2220</v>
       </c>
-      <c r="D133" s="3" t="n">
+      <c r="D133" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="3" t="n">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="3">
         <v>133</v>
       </c>
-      <c r="B134" s="3" t="n">
+      <c r="B134" s="3">
         <v>1817</v>
       </c>
-      <c r="C134" s="3" t="n">
+      <c r="C134" s="3">
         <v>4197</v>
       </c>
-      <c r="D134" s="3" t="n">
+      <c r="D134" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="3" t="n">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="3">
         <v>134</v>
       </c>
-      <c r="B135" s="3" t="n">
+      <c r="B135" s="3">
         <v>179</v>
       </c>
-      <c r="C135" s="3" t="n">
+      <c r="C135" s="3">
         <v>333</v>
       </c>
-      <c r="D135" s="3" t="n">
+      <c r="D135" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="3" t="n">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="3">
         <v>135</v>
       </c>
-      <c r="B136" s="3" t="n">
+      <c r="B136" s="3">
         <v>840</v>
       </c>
-      <c r="C136" s="3" t="n">
+      <c r="C136" s="3">
         <v>2089</v>
       </c>
-      <c r="D136" s="3" t="n">
+      <c r="D136" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="3" t="n">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="3">
         <v>136</v>
       </c>
-      <c r="B137" s="3" t="n">
+      <c r="B137" s="3">
         <v>3632</v>
       </c>
-      <c r="C137" s="3" t="n">
+      <c r="C137" s="3">
         <v>6991</v>
       </c>
-      <c r="D137" s="3" t="n">
+      <c r="D137" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="3" t="n">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="3">
         <v>137</v>
       </c>
-      <c r="B138" s="3" t="n">
+      <c r="B138" s="3">
         <v>258</v>
       </c>
-      <c r="C138" s="3" t="n">
+      <c r="C138" s="3">
         <v>524</v>
       </c>
-      <c r="D138" s="3" t="n">
+      <c r="D138" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="3" t="n">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="3">
         <v>138</v>
       </c>
-      <c r="B139" s="3" t="n">
+      <c r="B139" s="3">
         <v>3580</v>
       </c>
-      <c r="C139" s="3" t="n">
+      <c r="C139" s="3">
         <v>6504</v>
       </c>
-      <c r="D139" s="3" t="n">
+      <c r="D139" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="3" t="n">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="3">
         <v>139</v>
       </c>
-      <c r="B140" s="3" t="n">
+      <c r="B140" s="3">
         <v>966</v>
       </c>
-      <c r="C140" s="3" t="n">
+      <c r="C140" s="3">
         <v>2183</v>
       </c>
-      <c r="D140" s="3" t="n">
+      <c r="D140" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="3" t="n">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="3">
         <v>140</v>
       </c>
-      <c r="B141" s="3" t="n">
+      <c r="B141" s="3">
         <v>1056</v>
       </c>
-      <c r="C141" s="3" t="n">
+      <c r="C141" s="3">
         <v>1807</v>
       </c>
-      <c r="D141" s="3" t="n">
+      <c r="D141" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="3" t="n">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="3">
         <v>141</v>
       </c>
-      <c r="B142" s="3" t="n">
+      <c r="B142" s="3">
         <v>3122</v>
       </c>
-      <c r="C142" s="3" t="n">
+      <c r="C142" s="3">
         <v>6494</v>
       </c>
-      <c r="D142" s="3" t="n">
+      <c r="D142" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="3" t="n">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="3">
         <v>142</v>
       </c>
-      <c r="B143" s="3" t="n">
+      <c r="B143" s="3">
         <v>1198</v>
       </c>
-      <c r="C143" s="3" t="n">
+      <c r="C143" s="3">
         <v>2523</v>
       </c>
-      <c r="D143" s="3" t="n">
+      <c r="D143" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="3" t="n">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="3">
         <v>143</v>
       </c>
-      <c r="B144" s="3" t="n">
+      <c r="B144" s="3">
         <v>2624</v>
       </c>
-      <c r="C144" s="3" t="n">
+      <c r="C144" s="3">
         <v>5796</v>
       </c>
-      <c r="D144" s="3" t="n">
+      <c r="D144" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="3" t="n">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="3">
         <v>144</v>
       </c>
-      <c r="B145" s="3" t="n">
+      <c r="B145" s="3">
         <v>2017</v>
       </c>
-      <c r="C145" s="3" t="n">
+      <c r="C145" s="3">
         <v>4037</v>
       </c>
-      <c r="D145" s="3" t="n">
+      <c r="D145" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="3" t="n">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="3">
         <v>145</v>
       </c>
-      <c r="B146" s="3" t="n">
+      <c r="B146" s="3">
         <v>2567</v>
       </c>
-      <c r="C146" s="3" t="n">
+      <c r="C146" s="3">
         <v>4722</v>
       </c>
-      <c r="D146" s="3" t="n">
+      <c r="D146" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="3" t="n">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="3">
         <v>146</v>
       </c>
-      <c r="B147" s="3" t="n">
+      <c r="B147" s="3">
         <v>2545</v>
       </c>
-      <c r="C147" s="3" t="n">
+      <c r="C147" s="3">
         <v>4343</v>
       </c>
-      <c r="D147" s="3" t="n">
+      <c r="D147" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="3" t="n">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="3">
         <v>147</v>
       </c>
-      <c r="B148" s="3" t="n">
+      <c r="B148" s="3">
         <v>493</v>
       </c>
-      <c r="C148" s="3" t="n">
+      <c r="C148" s="3">
         <v>1227</v>
       </c>
-      <c r="D148" s="3" t="n">
+      <c r="D148" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="3" t="n">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="3">
         <v>148</v>
       </c>
-      <c r="B149" s="3" t="n">
+      <c r="B149" s="3">
         <v>741</v>
       </c>
-      <c r="C149" s="3" t="n">
+      <c r="C149" s="3">
         <v>1688</v>
       </c>
-      <c r="D149" s="3" t="n">
+      <c r="D149" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="3" t="n">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="3">
         <v>149</v>
       </c>
-      <c r="B150" s="3" t="n">
+      <c r="B150" s="3">
         <v>748</v>
       </c>
-      <c r="C150" s="3" t="n">
+      <c r="C150" s="3">
         <v>1748</v>
       </c>
-      <c r="D150" s="3" t="n">
+      <c r="D150" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="3" t="n">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="3">
         <v>150</v>
       </c>
-      <c r="B151" s="3" t="n">
+      <c r="B151" s="3">
         <v>3334</v>
       </c>
-      <c r="C151" s="3" t="n">
+      <c r="C151" s="3">
         <v>5608</v>
       </c>
-      <c r="D151" s="3" t="n">
+      <c r="D151" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="3" t="n">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="3">
         <v>151</v>
       </c>
-      <c r="B152" s="3" t="n">
+      <c r="B152" s="3">
         <v>1652</v>
       </c>
-      <c r="C152" s="3" t="n">
+      <c r="C152" s="3">
         <v>2999</v>
       </c>
-      <c r="D152" s="3" t="n">
+      <c r="D152" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="3" t="n">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="3">
         <v>152</v>
       </c>
-      <c r="B153" s="3" t="n">
+      <c r="B153" s="3">
         <v>1181</v>
       </c>
-      <c r="C153" s="3" t="n">
+      <c r="C153" s="3">
         <v>2450</v>
       </c>
-      <c r="D153" s="3" t="n">
+      <c r="D153" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="3" t="n">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="3">
         <v>153</v>
       </c>
-      <c r="B154" s="3" t="n">
+      <c r="B154" s="3">
         <v>1638</v>
       </c>
-      <c r="C154" s="3" t="n">
+      <c r="C154" s="3">
         <v>3957</v>
       </c>
-      <c r="D154" s="3" t="n">
+      <c r="D154" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="3" t="n">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="3">
         <v>154</v>
       </c>
-      <c r="B155" s="3" t="n">
+      <c r="B155" s="3">
         <v>474</v>
       </c>
-      <c r="C155" s="3" t="n">
+      <c r="C155" s="3">
         <v>989</v>
       </c>
-      <c r="D155" s="3" t="n">
+      <c r="D155" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="3" t="n">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="3">
         <v>155</v>
       </c>
-      <c r="B156" s="3" t="n">
+      <c r="B156" s="3">
         <v>1934</v>
       </c>
-      <c r="C156" s="3" t="n">
+      <c r="C156" s="3">
         <v>3774</v>
       </c>
-      <c r="D156" s="3" t="n">
+      <c r="D156" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="3" t="n">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="3">
         <v>156</v>
       </c>
-      <c r="B157" s="3" t="n">
+      <c r="B157" s="3">
         <v>2262</v>
       </c>
-      <c r="C157" s="3" t="n">
+      <c r="C157" s="3">
         <v>3995</v>
       </c>
-      <c r="D157" s="3" t="n">
+      <c r="D157" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="3" t="n">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="3">
         <v>157</v>
       </c>
-      <c r="B158" s="3" t="n">
+      <c r="B158" s="3">
         <v>2149</v>
       </c>
-      <c r="C158" s="3" t="n">
+      <c r="C158" s="3">
         <v>4574</v>
       </c>
-      <c r="D158" s="3" t="n">
+      <c r="D158" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="3" t="n">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="3">
         <v>158</v>
       </c>
-      <c r="B159" s="3" t="n">
+      <c r="B159" s="3">
         <v>1350</v>
       </c>
-      <c r="C159" s="3" t="n">
+      <c r="C159" s="3">
         <v>2951</v>
       </c>
-      <c r="D159" s="3" t="n">
+      <c r="D159" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="3" t="n">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="3">
         <v>159</v>
       </c>
-      <c r="B160" s="3" t="n">
+      <c r="B160" s="3">
         <v>2430</v>
       </c>
-      <c r="C160" s="3" t="n">
+      <c r="C160" s="3">
         <v>5970</v>
       </c>
-      <c r="D160" s="3" t="n">
+      <c r="D160" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="3" t="n">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="3">
         <v>160</v>
       </c>
-      <c r="B161" s="3" t="n">
+      <c r="B161" s="3">
         <v>2792</v>
       </c>
-      <c r="C161" s="3" t="n">
+      <c r="C161" s="3">
         <v>4802</v>
       </c>
-      <c r="D161" s="3" t="n">
+      <c r="D161" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="3" t="n">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="3">
         <v>161</v>
       </c>
-      <c r="B162" s="3" t="n">
+      <c r="B162" s="3">
         <v>785</v>
       </c>
-      <c r="C162" s="3" t="n">
+      <c r="C162" s="3">
         <v>1458</v>
       </c>
-      <c r="D162" s="3" t="n">
+      <c r="D162" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="3" t="n">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="3">
         <v>162</v>
       </c>
-      <c r="B163" s="3" t="n">
+      <c r="B163" s="3">
         <v>1900</v>
       </c>
-      <c r="C163" s="3" t="n">
+      <c r="C163" s="3">
         <v>3745</v>
       </c>
-      <c r="D163" s="3" t="n">
+      <c r="D163" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="3" t="n">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="3">
         <v>163</v>
       </c>
-      <c r="B164" s="3" t="n">
+      <c r="B164" s="3">
         <v>441</v>
       </c>
-      <c r="C164" s="3" t="n">
+      <c r="C164" s="3">
         <v>851</v>
       </c>
-      <c r="D164" s="3" t="n">
+      <c r="D164" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="3" t="n">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="3">
         <v>164</v>
       </c>
-      <c r="B165" s="3" t="n">
+      <c r="B165" s="3">
         <v>1886</v>
       </c>
-      <c r="C165" s="3" t="n">
+      <c r="C165" s="3">
         <v>4625</v>
       </c>
-      <c r="D165" s="3" t="n">
+      <c r="D165" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="3" t="n">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="3">
         <v>165</v>
       </c>
-      <c r="B166" s="3" t="n">
+      <c r="B166" s="3">
         <v>1462</v>
       </c>
-      <c r="C166" s="3" t="n">
+      <c r="C166" s="3">
         <v>2478</v>
       </c>
-      <c r="D166" s="3" t="n">
+      <c r="D166" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="3" t="n">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="3">
         <v>166</v>
       </c>
-      <c r="B167" s="3" t="n">
+      <c r="B167" s="3">
         <v>660</v>
       </c>
-      <c r="C167" s="3" t="n">
+      <c r="C167" s="3">
         <v>1535</v>
       </c>
-      <c r="D167" s="3" t="n">
+      <c r="D167" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="3" t="n">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="3">
         <v>167</v>
       </c>
-      <c r="B168" s="3" t="n">
+      <c r="B168" s="3">
         <v>3070</v>
       </c>
-      <c r="C168" s="3" t="n">
+      <c r="C168" s="3">
         <v>5694</v>
       </c>
-      <c r="D168" s="3" t="n">
+      <c r="D168" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="3" t="n">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="3">
         <v>168</v>
       </c>
-      <c r="B169" s="3" t="n">
+      <c r="B169" s="3">
         <v>1927</v>
       </c>
-      <c r="C169" s="3" t="n">
+      <c r="C169" s="3">
         <v>4003</v>
       </c>
-      <c r="D169" s="3" t="n">
+      <c r="D169" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="3" t="n">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="3">
         <v>169</v>
       </c>
-      <c r="B170" s="3" t="n">
+      <c r="B170" s="3">
         <v>2553</v>
       </c>
-      <c r="C170" s="3" t="n">
+      <c r="C170" s="3">
         <v>4933</v>
       </c>
-      <c r="D170" s="3" t="n">
+      <c r="D170" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="3" t="n">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="3">
         <v>170</v>
       </c>
-      <c r="B171" s="3" t="n">
+      <c r="B171" s="3">
         <v>2403</v>
       </c>
-      <c r="C171" s="3" t="n">
+      <c r="C171" s="3">
         <v>4683</v>
       </c>
-      <c r="D171" s="3" t="n">
+      <c r="D171" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="3" t="n">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="3">
         <v>171</v>
       </c>
-      <c r="B172" s="3" t="n">
+      <c r="B172" s="3">
         <v>815</v>
       </c>
-      <c r="C172" s="3" t="n">
+      <c r="C172" s="3">
         <v>1878</v>
       </c>
-      <c r="D172" s="3" t="n">
+      <c r="D172" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="3" t="n">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="3">
         <v>172</v>
       </c>
-      <c r="B173" s="3" t="n">
+      <c r="B173" s="3">
         <v>3579</v>
       </c>
-      <c r="C173" s="3" t="n">
+      <c r="C173" s="3">
         <v>6239</v>
       </c>
-      <c r="D173" s="3" t="n">
+      <c r="D173" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="3" t="n">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="3">
         <v>173</v>
       </c>
-      <c r="B174" s="3" t="n">
+      <c r="B174" s="3">
         <v>3014</v>
       </c>
-      <c r="C174" s="3" t="n">
+      <c r="C174" s="3">
         <v>5455</v>
       </c>
-      <c r="D174" s="3" t="n">
+      <c r="D174" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="3" t="n">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="3">
         <v>174</v>
       </c>
-      <c r="B175" s="3" t="n">
+      <c r="B175" s="3">
         <v>436</v>
       </c>
-      <c r="C175" s="3" t="n">
+      <c r="C175" s="3">
         <v>779</v>
       </c>
-      <c r="D175" s="3" t="n">
+      <c r="D175" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="3" t="n">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="3">
         <v>175</v>
       </c>
-      <c r="B176" s="3" t="n">
+      <c r="B176" s="3">
         <v>1641</v>
       </c>
-      <c r="C176" s="3" t="n">
+      <c r="C176" s="3">
         <v>3894</v>
       </c>
-      <c r="D176" s="3" t="n">
+      <c r="D176" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="3" t="n">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="3">
         <v>176</v>
       </c>
-      <c r="B177" s="3" t="n">
+      <c r="B177" s="3">
         <v>131</v>
       </c>
-      <c r="C177" s="3" t="n">
+      <c r="C177" s="3">
         <v>250</v>
       </c>
-      <c r="D177" s="3" t="n">
+      <c r="D177" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="3" t="n">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="3">
         <v>177</v>
       </c>
-      <c r="B178" s="3" t="n">
+      <c r="B178" s="3">
         <v>1155</v>
       </c>
-      <c r="C178" s="3" t="n">
+      <c r="C178" s="3">
         <v>2476</v>
       </c>
-      <c r="D178" s="3" t="n">
+      <c r="D178" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="3" t="n">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="3">
         <v>178</v>
       </c>
-      <c r="B179" s="3" t="n">
+      <c r="B179" s="3">
         <v>2184</v>
       </c>
-      <c r="C179" s="3" t="n">
+      <c r="C179" s="3">
         <v>3944</v>
       </c>
-      <c r="D179" s="3" t="n">
+      <c r="D179" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="3" t="n">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="3">
         <v>179</v>
       </c>
-      <c r="B180" s="3" t="n">
+      <c r="B180" s="3">
         <v>274</v>
       </c>
-      <c r="C180" s="3" t="n">
+      <c r="C180" s="3">
         <v>615</v>
       </c>
-      <c r="D180" s="3" t="n">
+      <c r="D180" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="3" t="n">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="3">
         <v>180</v>
       </c>
-      <c r="B181" s="3" t="n">
+      <c r="B181" s="3">
         <v>3285</v>
       </c>
-      <c r="C181" s="3" t="n">
+      <c r="C181" s="3">
         <v>5651</v>
       </c>
-      <c r="D181" s="3" t="n">
+      <c r="D181" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="3" t="n">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="3">
         <v>181</v>
       </c>
-      <c r="B182" s="3" t="n">
+      <c r="B182" s="3">
         <v>2559</v>
       </c>
-      <c r="C182" s="3" t="n">
+      <c r="C182" s="3">
         <v>5788</v>
       </c>
-      <c r="D182" s="3" t="n">
+      <c r="D182" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="3" t="n">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="3">
         <v>182</v>
       </c>
-      <c r="B183" s="3" t="n">
+      <c r="B183" s="3">
         <v>1728</v>
       </c>
-      <c r="C183" s="3" t="n">
+      <c r="C183" s="3">
         <v>3458</v>
       </c>
-      <c r="D183" s="3" t="n">
+      <c r="D183" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="3" t="n">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="3">
         <v>183</v>
       </c>
-      <c r="B184" s="3" t="n">
+      <c r="B184" s="3">
         <v>2993</v>
       </c>
-      <c r="C184" s="3" t="n">
+      <c r="C184" s="3">
         <v>6882</v>
       </c>
-      <c r="D184" s="3" t="n">
+      <c r="D184" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="3" t="n">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="3">
         <v>184</v>
       </c>
-      <c r="B185" s="3" t="n">
+      <c r="B185" s="3">
         <v>3202</v>
       </c>
-      <c r="C185" s="3" t="n">
+      <c r="C185" s="3">
         <v>5551</v>
       </c>
-      <c r="D185" s="3" t="n">
+      <c r="D185" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="3" t="n">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="3">
         <v>185</v>
       </c>
-      <c r="B186" s="3" t="n">
+      <c r="B186" s="3">
         <v>2790</v>
       </c>
-      <c r="C186" s="3" t="n">
+      <c r="C186" s="3">
         <v>5397</v>
       </c>
-      <c r="D186" s="3" t="n">
+      <c r="D186" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="3" t="n">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="3">
         <v>186</v>
       </c>
-      <c r="B187" s="3" t="n">
+      <c r="B187" s="3">
         <v>2353</v>
       </c>
-      <c r="C187" s="3" t="n">
+      <c r="C187" s="3">
         <v>5869</v>
       </c>
-      <c r="D187" s="3" t="n">
+      <c r="D187" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="3" t="n">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="3">
         <v>187</v>
       </c>
-      <c r="B188" s="3" t="n">
+      <c r="B188" s="3">
         <v>632</v>
       </c>
-      <c r="C188" s="3" t="n">
+      <c r="C188" s="3">
         <v>1360</v>
       </c>
-      <c r="D188" s="3" t="n">
+      <c r="D188" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="3" t="n">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="3">
         <v>188</v>
       </c>
-      <c r="B189" s="3" t="n">
+      <c r="B189" s="3">
         <v>1263</v>
       </c>
-      <c r="C189" s="3" t="n">
+      <c r="C189" s="3">
         <v>2184</v>
       </c>
-      <c r="D189" s="3" t="n">
+      <c r="D189" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="3" t="n">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="3">
         <v>189</v>
       </c>
-      <c r="B190" s="3" t="n">
+      <c r="B190" s="3">
         <v>3201</v>
       </c>
-      <c r="C190" s="3" t="n">
+      <c r="C190" s="3">
         <v>6160</v>
       </c>
-      <c r="D190" s="3" t="n">
+      <c r="D190" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="3" t="n">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="3">
         <v>190</v>
       </c>
-      <c r="B191" s="3" t="n">
+      <c r="B191" s="3">
         <v>2032</v>
       </c>
-      <c r="C191" s="3" t="n">
+      <c r="C191" s="3">
         <v>4278</v>
       </c>
-      <c r="D191" s="3" t="n">
+      <c r="D191" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="3" t="n">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="3">
         <v>191</v>
       </c>
-      <c r="B192" s="3" t="n">
+      <c r="B192" s="3">
         <v>2661</v>
       </c>
-      <c r="C192" s="3" t="n">
+      <c r="C192" s="3">
         <v>5319</v>
       </c>
-      <c r="D192" s="3" t="n">
+      <c r="D192" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="3" t="n">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="3">
         <v>192</v>
       </c>
-      <c r="B193" s="3" t="n">
+      <c r="B193" s="3">
         <v>805</v>
       </c>
-      <c r="C193" s="3" t="n">
+      <c r="C193" s="3">
         <v>1488</v>
       </c>
-      <c r="D193" s="3" t="n">
+      <c r="D193" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="3" t="n">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="3">
         <v>193</v>
       </c>
-      <c r="B194" s="3" t="n">
+      <c r="B194" s="3">
         <v>469</v>
       </c>
-      <c r="C194" s="3" t="n">
+      <c r="C194" s="3">
         <v>795</v>
       </c>
-      <c r="D194" s="3" t="n">
+      <c r="D194" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="3" t="n">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="3">
         <v>194</v>
       </c>
-      <c r="B195" s="3" t="n">
+      <c r="B195" s="3">
         <v>923</v>
       </c>
-      <c r="C195" s="3" t="n">
+      <c r="C195" s="3">
         <v>1797</v>
       </c>
-      <c r="D195" s="3" t="n">
+      <c r="D195" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="3" t="n">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="3">
         <v>195</v>
       </c>
-      <c r="B196" s="3" t="n">
+      <c r="B196" s="3">
         <v>2120</v>
       </c>
-      <c r="C196" s="3" t="n">
+      <c r="C196" s="3">
         <v>4806</v>
       </c>
-      <c r="D196" s="3" t="n">
+      <c r="D196" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="3" t="n">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="3">
         <v>196</v>
       </c>
-      <c r="B197" s="3" t="n">
+      <c r="B197" s="3">
         <v>2237</v>
       </c>
-      <c r="C197" s="3" t="n">
+      <c r="C197" s="3">
         <v>4149</v>
       </c>
-      <c r="D197" s="3" t="n">
+      <c r="D197" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="3" t="n">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="3">
         <v>197</v>
       </c>
-      <c r="B198" s="3" t="n">
+      <c r="B198" s="3">
         <v>3162</v>
       </c>
-      <c r="C198" s="3" t="n">
+      <c r="C198" s="3">
         <v>5331</v>
       </c>
-      <c r="D198" s="3" t="n">
+      <c r="D198" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="3" t="n">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="3">
         <v>198</v>
       </c>
-      <c r="B199" s="3" t="n">
+      <c r="B199" s="3">
         <v>253</v>
       </c>
-      <c r="C199" s="3" t="n">
+      <c r="C199" s="3">
         <v>586</v>
       </c>
-      <c r="D199" s="3" t="n">
+      <c r="D199" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="3" t="n">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="3">
         <v>199</v>
       </c>
-      <c r="B200" s="3" t="n">
+      <c r="B200" s="3">
         <v>2224</v>
       </c>
-      <c r="C200" s="3" t="n">
+      <c r="C200" s="3">
         <v>4984</v>
       </c>
-      <c r="D200" s="3" t="n">
+      <c r="D200" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="3" t="n">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="3">
         <v>200</v>
       </c>
-      <c r="B201" s="3" t="n">
+      <c r="B201" s="3">
         <v>388</v>
       </c>
-      <c r="C201" s="3" t="n">
+      <c r="C201" s="3">
         <v>859</v>
       </c>
-      <c r="D201" s="3" t="n">
+      <c r="D201" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="3" t="n">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="3">
         <v>201</v>
       </c>
-      <c r="B202" s="3" t="n">
+      <c r="B202" s="3">
         <v>1809</v>
       </c>
-      <c r="C202" s="3" t="n">
+      <c r="C202" s="3">
         <v>3060</v>
       </c>
-      <c r="D202" s="3" t="n">
+      <c r="D202" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="3" t="n">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="3">
         <v>202</v>
       </c>
-      <c r="B203" s="3" t="n">
+      <c r="B203" s="3">
         <v>1591</v>
       </c>
-      <c r="C203" s="3" t="n">
+      <c r="C203" s="3">
         <v>3529</v>
       </c>
-      <c r="D203" s="3" t="n">
+      <c r="D203" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="3" t="n">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="3">
         <v>203</v>
       </c>
-      <c r="B204" s="3" t="n">
+      <c r="B204" s="3">
         <v>2676</v>
       </c>
-      <c r="C204" s="3" t="n">
+      <c r="C204" s="3">
         <v>4822</v>
       </c>
-      <c r="D204" s="3" t="n">
+      <c r="D204" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="3" t="n">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="3">
         <v>204</v>
       </c>
-      <c r="B205" s="3" t="n">
+      <c r="B205" s="3">
         <v>4042</v>
       </c>
-      <c r="C205" s="3" t="n">
+      <c r="C205" s="3">
         <v>6753</v>
       </c>
-      <c r="D205" s="3" t="n">
+      <c r="D205" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="3" t="n">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="3">
         <v>205</v>
       </c>
-      <c r="B206" s="3" t="n">
+      <c r="B206" s="3">
         <v>2092</v>
       </c>
-      <c r="C206" s="3" t="n">
+      <c r="C206" s="3">
         <v>4142</v>
       </c>
-      <c r="D206" s="3" t="n">
+      <c r="D206" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="3" t="n">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="3">
         <v>206</v>
       </c>
-      <c r="B207" s="3" t="n">
+      <c r="B207" s="3">
         <v>345</v>
       </c>
-      <c r="C207" s="3" t="n">
+      <c r="C207" s="3">
         <v>649</v>
       </c>
-      <c r="D207" s="3" t="n">
+      <c r="D207" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="3" t="n">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="3">
         <v>207</v>
       </c>
-      <c r="B208" s="3" t="n">
+      <c r="B208" s="3">
         <v>733</v>
       </c>
-      <c r="C208" s="3" t="n">
+      <c r="C208" s="3">
         <v>1224</v>
       </c>
-      <c r="D208" s="3" t="n">
+      <c r="D208" s="3">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.64453125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.33"/>
+    <col min="1" max="1" width="24.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="5">
+        <v>10</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="5">
+        <v>19.5</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="5">
+        <v>200</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5">
+        <v>30</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="5">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="5">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="n">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5" t="n">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="5">
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="5" t="n">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="5">
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="5" t="n">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="5" t="n">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="5" t="n">
-        <v>19.5</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="5" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="5">
+        <v>5</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="5">
         <v>20</v>
       </c>
-      <c r="B15" s="5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="5" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="5" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="5" t="n">
-        <v>175</v>
+      <c r="C27" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>